--- a/teams.xlsx
+++ b/teams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="grade56" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>6klasnici</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Sasho</t>
+  </si>
+  <si>
+    <t>NPMG</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>PMG</t>
   </si>
 </sst>
 </file>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,133 +598,148 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -726,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,98 +761,110 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -839,10 +875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,29 +886,32 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
     </row>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
   </bookViews>
   <sheets>
-    <sheet name="grade56" sheetId="1" r:id="rId1"/>
-    <sheet name="grade78" sheetId="2" r:id="rId2"/>
-    <sheet name="grade912" sheetId="3" r:id="rId3"/>
+    <sheet name="grade67" sheetId="3" r:id="rId1"/>
+    <sheet name="grade89" sheetId="2" r:id="rId2"/>
+    <sheet name="grade1012" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -26,216 +26,1011 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
-  <si>
-    <t>6klasnici</t>
-  </si>
-  <si>
-    <t>5klasnici</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>5asd</t>
-  </si>
-  <si>
-    <t>5gsa</t>
-  </si>
-  <si>
-    <t>5has</t>
-  </si>
-  <si>
-    <t>xzcvzxv</t>
-  </si>
-  <si>
-    <t>adsasdasf</t>
-  </si>
-  <si>
-    <t>dssad</t>
-  </si>
-  <si>
-    <t>hadgdagd</t>
-  </si>
-  <si>
-    <t>agdgadh</t>
-  </si>
-  <si>
-    <t>kwdkw</t>
-  </si>
-  <si>
-    <t>wkdwkd</t>
-  </si>
-  <si>
-    <t>kdwkas</t>
-  </si>
-  <si>
-    <t>kwdksa</t>
-  </si>
-  <si>
-    <t>owadxc</t>
-  </si>
-  <si>
-    <t>okadskkd</t>
-  </si>
-  <si>
-    <t>owdkawkd</t>
-  </si>
-  <si>
-    <t>odwakdw</t>
-  </si>
-  <si>
-    <t>wdoakdowa</t>
-  </si>
-  <si>
-    <t>owadkwao</t>
-  </si>
-  <si>
-    <t>asldapw</t>
-  </si>
-  <si>
-    <t>mnvskd</t>
-  </si>
-  <si>
-    <t>awmdomv</t>
-  </si>
-  <si>
-    <t>poqwdnsx</t>
-  </si>
-  <si>
-    <t>qpowdinxc</t>
-  </si>
-  <si>
-    <t>wqopjdqinx</t>
-  </si>
-  <si>
-    <t>oqwpkdqmx</t>
-  </si>
-  <si>
-    <t>opwqdmx</t>
-  </si>
-  <si>
-    <t>owqmdsx</t>
-  </si>
-  <si>
-    <t>7kl</t>
-  </si>
-  <si>
-    <t>8kl</t>
-  </si>
-  <si>
-    <t>7kaks</t>
-  </si>
-  <si>
-    <t>8kaks</t>
-  </si>
-  <si>
-    <t>xzcv</t>
-  </si>
-  <si>
-    <t>dwqdwq</t>
-  </si>
-  <si>
-    <t>qwdqwd</t>
-  </si>
-  <si>
-    <t>zvdfs</t>
-  </si>
-  <si>
-    <t>qwesadxz</t>
-  </si>
-  <si>
-    <t>qwtasxz</t>
-  </si>
-  <si>
-    <t>qweqtex</t>
-  </si>
-  <si>
-    <t>qwtexcas</t>
-  </si>
-  <si>
-    <t>tqwrwqs</t>
-  </si>
-  <si>
-    <t>wqtewtx</t>
-  </si>
-  <si>
-    <t>wqrwqds</t>
-  </si>
-  <si>
-    <t>awdwqsa</t>
-  </si>
-  <si>
-    <t>wqrwqrs</t>
-  </si>
-  <si>
-    <t>wqrsa</t>
-  </si>
-  <si>
-    <t>taerafsa</t>
-  </si>
-  <si>
-    <t>awdwqdsa</t>
-  </si>
-  <si>
-    <t>211rwqs</t>
-  </si>
-  <si>
-    <t>wqdwqd</t>
-  </si>
-  <si>
-    <t>wqdqwdgd</t>
-  </si>
-  <si>
-    <t>gwqehwefw</t>
-  </si>
-  <si>
-    <t>wqfqfews</t>
-  </si>
-  <si>
-    <t>SMG</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Ivo</t>
-  </si>
-  <si>
-    <t>Curi</t>
-  </si>
-  <si>
-    <t>Stenli</t>
-  </si>
-  <si>
-    <t>Rumen</t>
-  </si>
-  <si>
-    <t>Sasho</t>
-  </si>
-  <si>
-    <t>NPMG</t>
-  </si>
-  <si>
-    <t>OMG</t>
-  </si>
-  <si>
-    <t>PMG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="335">
+  <si>
+    <t xml:space="preserve">СМГ 10_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМГ 10_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМГ 10_3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМГ 10_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМГ 11_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМГ 11_2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МГ Варна и приятели </t>
+  </si>
+  <si>
+    <t>Американски колеж</t>
+  </si>
+  <si>
+    <t>Бургас</t>
+  </si>
+  <si>
+    <t>Евгени Стаев Кайряков</t>
+  </si>
+  <si>
+    <t>Иво Владиславов Петров</t>
+  </si>
+  <si>
+    <t>Лилия Петрова Вигенина</t>
+  </si>
+  <si>
+    <t>Ханг Хоанг Та</t>
+  </si>
+  <si>
+    <t>Лазарина Живкова Попова</t>
+  </si>
+  <si>
+    <t>Димитър Георгиев Христов</t>
+  </si>
+  <si>
+    <t>Деница Петрова Павлова</t>
+  </si>
+  <si>
+    <t>Яна Ивайлова Иванова</t>
+  </si>
+  <si>
+    <t>Петър Емилов Лангов</t>
+  </si>
+  <si>
+    <t>Александър Йорданов Банков</t>
+  </si>
+  <si>
+    <t>Дамян Стоянов Францов</t>
+  </si>
+  <si>
+    <t>Кирил Каменов Трифонов</t>
+  </si>
+  <si>
+    <t>Асен Светлинов Марков</t>
+  </si>
+  <si>
+    <t>Владимир Лъчезаров Железарски</t>
+  </si>
+  <si>
+    <t>Йоан Миленов Минев</t>
+  </si>
+  <si>
+    <t>Радослав Радославов Велчев</t>
+  </si>
+  <si>
+    <t>Васил Валентинов Пирински</t>
+  </si>
+  <si>
+    <t>Янаки Александров Кръстев</t>
+  </si>
+  <si>
+    <t>Мартин Кирилов Димитров</t>
+  </si>
+  <si>
+    <t>Тодор Пенев Христов</t>
+  </si>
+  <si>
+    <t>Деница Венцеславова Цанова</t>
+  </si>
+  <si>
+    <t>Виктория Стоянова Спасова</t>
+  </si>
+  <si>
+    <t>Мартин Русланов Германов</t>
+  </si>
+  <si>
+    <t>Радомир Радославов Пеев</t>
+  </si>
+  <si>
+    <t>Борислав Калоянов Антов</t>
+  </si>
+  <si>
+    <t>Георги Атанасов Паскалев</t>
+  </si>
+  <si>
+    <t>Пламен Тодоров Иванов</t>
+  </si>
+  <si>
+    <t>Люба Венелинова Конова</t>
+  </si>
+  <si>
+    <t>Георги Георгиев Ангелов</t>
+  </si>
+  <si>
+    <t>Борис Александров Барбов</t>
+  </si>
+  <si>
+    <t>Радостин Радославов Димитров</t>
+  </si>
+  <si>
+    <t>Никола Иванов Секулов</t>
+  </si>
+  <si>
+    <t>Денислав Георгиев Георгиев</t>
+  </si>
+  <si>
+    <t>Никола Иванов Янакиев</t>
+  </si>
+  <si>
+    <t>Христо Ивайлов Михайилов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Симона Емилиянова Кукова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Златина Тодорова Милева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борис Василев Геренски </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Димитър Ясенов Опърлаков </t>
+  </si>
+  <si>
+    <t>Кристиян Владимиров Василев</t>
+  </si>
+  <si>
+    <t>Димитър Атанасов Чакъров</t>
+  </si>
+  <si>
+    <t>Александър Ангелов Желязков</t>
+  </si>
+  <si>
+    <t>Иван Николаев Николов</t>
+  </si>
+  <si>
+    <t>Златомир Георгиев Папазов</t>
+  </si>
+  <si>
+    <t>Николай Николаев Миладинов</t>
+  </si>
+  <si>
+    <t>Йоана Николаева Николова</t>
+  </si>
+  <si>
+    <t>Симона Даниелова Барокова</t>
+  </si>
+  <si>
+    <t>Константин Радосветов Гаров</t>
+  </si>
+  <si>
+    <t>Атанас Боянов Динев</t>
+  </si>
+  <si>
+    <t>Орлин Николаев Кучумбов</t>
+  </si>
+  <si>
+    <t>Кристиан Емилов Минчев</t>
+  </si>
+  <si>
+    <t>Нури Нурай Хасан</t>
+  </si>
+  <si>
+    <t>СМГ 8_1</t>
+  </si>
+  <si>
+    <t>СМГ</t>
+  </si>
+  <si>
+    <t>Павел Иванов Панев</t>
+  </si>
+  <si>
+    <t>Томислав Миленов Димитров</t>
+  </si>
+  <si>
+    <t>Даниел Николаев Рачев</t>
+  </si>
+  <si>
+    <t>Мартин Дамянов Неев</t>
+  </si>
+  <si>
+    <t>Румяна Иван-Асен Иванова</t>
+  </si>
+  <si>
+    <t>СМГ 8_2</t>
+  </si>
+  <si>
+    <t>Вероника Ивайлова Ченчева</t>
+  </si>
+  <si>
+    <t>Исидор Илиянов Хлебаров</t>
+  </si>
+  <si>
+    <t>Момчил Христов Младенов</t>
+  </si>
+  <si>
+    <t>Ралица Николаева Ралева</t>
+  </si>
+  <si>
+    <t>Виктория Георгиева Генова</t>
+  </si>
+  <si>
+    <t>Йоана Николаева Ангелова</t>
+  </si>
+  <si>
+    <t>СМГ Мотикарите</t>
+  </si>
+  <si>
+    <t>Милко Иванов Бакалов</t>
+  </si>
+  <si>
+    <t>Валери Чавдаров Ванков</t>
+  </si>
+  <si>
+    <t>Димитър Ангелов Митов</t>
+  </si>
+  <si>
+    <t>Иван Валентинов Божанин</t>
+  </si>
+  <si>
+    <t>Стефан Ивайлов Иванов</t>
+  </si>
+  <si>
+    <t>Георги Дианов Динков</t>
+  </si>
+  <si>
+    <t>СМГ 8_4</t>
+  </si>
+  <si>
+    <t>Георги Стефанов Златилов</t>
+  </si>
+  <si>
+    <t>Дарина Драгомирова Великова</t>
+  </si>
+  <si>
+    <t>Десислава Пламенова Николова</t>
+  </si>
+  <si>
+    <t>Калина Александрова Николова</t>
+  </si>
+  <si>
+    <t>Стефанка Тодорова Манахова</t>
+  </si>
+  <si>
+    <t>Мартин Светославов Давидов</t>
+  </si>
+  <si>
+    <t>СМГ 8_5</t>
+  </si>
+  <si>
+    <t>Георги Христов Димитров</t>
+  </si>
+  <si>
+    <t>Константин Христов Илиев</t>
+  </si>
+  <si>
+    <t>Георги Пейчев Пеев</t>
+  </si>
+  <si>
+    <t>Георги Димитров Вълков</t>
+  </si>
+  <si>
+    <t>Калоян Дойчинов Дочев</t>
+  </si>
+  <si>
+    <t>Слав Христов Петков</t>
+  </si>
+  <si>
+    <t>СМГ 9_1</t>
+  </si>
+  <si>
+    <t>Диян Христинов Димитров</t>
+  </si>
+  <si>
+    <t>Радослав Бориславов Драганов</t>
+  </si>
+  <si>
+    <t>Мая Петрова Панова</t>
+  </si>
+  <si>
+    <t>Даниела Параскевова Бенчева</t>
+  </si>
+  <si>
+    <t>Йоан Найденов Найденов</t>
+  </si>
+  <si>
+    <t>Светлин Красимиров Лалов</t>
+  </si>
+  <si>
+    <t>СМГ 9_2</t>
+  </si>
+  <si>
+    <t>Ева Ивайлова Кортезова</t>
+  </si>
+  <si>
+    <t>Виктор Владимиров Василев</t>
+  </si>
+  <si>
+    <t>Анна Росенова Михалкова</t>
+  </si>
+  <si>
+    <t>Лилиана Велизар Чернев</t>
+  </si>
+  <si>
+    <t>Мартин Владимиров Василев</t>
+  </si>
+  <si>
+    <t>Николай Николаев Георгиев</t>
+  </si>
+  <si>
+    <t>СМГ 9_3 - Дионис</t>
+  </si>
+  <si>
+    <t>Иван Венциславов Георгиев</t>
+  </si>
+  <si>
+    <t>Мартин Боянов Стефанов</t>
+  </si>
+  <si>
+    <t>Къонг Виет До</t>
+  </si>
+  <si>
+    <t>Александър Стоянов Недков</t>
+  </si>
+  <si>
+    <t>Никола Мартинов Стайков</t>
+  </si>
+  <si>
+    <t>Калоян Тодоров Фачиков</t>
+  </si>
+  <si>
+    <t>СМГ 9_4 - Артемис</t>
+  </si>
+  <si>
+    <t>Маргарита Велчева Стефанова</t>
+  </si>
+  <si>
+    <t>Никола Боянов Джунов</t>
+  </si>
+  <si>
+    <t>Нели Динкова Митева</t>
+  </si>
+  <si>
+    <t>Тея Мирославова Касабова</t>
+  </si>
+  <si>
+    <t>Изабел Галинова Сотирова</t>
+  </si>
+  <si>
+    <t>Теодора Веселинова Христова</t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков" - Отбор 1</t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виктор Стилиянов Узунов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария Иванова Митева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мартина Радославова Мартинова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красимир Славчев Лазаров </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радин Ивайлов Цочев </t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков" - Отбор 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хари Христов Христов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван Минчев Вътев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калояна Живкова Балева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вилия Радостинова Зивилдиева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Катя Иванова Николова </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атанас Стоянов Хрисулев </t>
+  </si>
+  <si>
+    <t>Бургас - Варна</t>
+  </si>
+  <si>
+    <t>ППМГ + МГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галин Миленов Тотев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Женя Янчева </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жаклин Александрова Катърджиева </t>
+  </si>
+  <si>
+    <t>Марк Валентинов Киричев</t>
+  </si>
+  <si>
+    <t>Димитър Николов Николов</t>
+  </si>
+  <si>
+    <t>ПЧМГ</t>
+  </si>
+  <si>
+    <t>Борислав Кирилов Кирилов</t>
+  </si>
+  <si>
+    <t>Любослав Иванов Стефанов</t>
+  </si>
+  <si>
+    <t>Никола Георгиев Славчев</t>
+  </si>
+  <si>
+    <t>Павел Василев Николов</t>
+  </si>
+  <si>
+    <t>Николай Димитров Драганов</t>
+  </si>
+  <si>
+    <t>Радостин Бисеров Хаджимарков</t>
+  </si>
+  <si>
+    <t>Американски Колеж</t>
+  </si>
+  <si>
+    <t>1.Гергана Георгиева Пеева</t>
+  </si>
+  <si>
+    <t>2.Спас Жеков Димитров</t>
+  </si>
+  <si>
+    <t>3.Гергана Георгиева Вълкова</t>
+  </si>
+  <si>
+    <t>4.Александра Димитрова Димитрова</t>
+  </si>
+  <si>
+    <t>5.Иво Станиславов Йорданов</t>
+  </si>
+  <si>
+    <t>6.Драгомир Драгомиров Ганев</t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков" - Отбор 3</t>
+  </si>
+  <si>
+    <t>Весела Пенчева Петкова</t>
+  </si>
+  <si>
+    <t>Данаил Димитров Георгиев</t>
+  </si>
+  <si>
+    <t>Димитър Василев Йовков</t>
+  </si>
+  <si>
+    <t>Христо Бориславов Борисов</t>
+  </si>
+  <si>
+    <t>Йордан Георгиев Апостолов</t>
+  </si>
+  <si>
+    <t>Никола Златанов Гюров</t>
+  </si>
+  <si>
+    <t>Добрич и други</t>
+  </si>
+  <si>
+    <t>ПМГ "Иван Вазов"</t>
+  </si>
+  <si>
+    <t>Елена Павлинова Вутова</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Любен Мирославов Балтаджиев</t>
+  </si>
+  <si>
+    <t>Елена Димитрова</t>
+  </si>
+  <si>
+    <t>Китайци</t>
+  </si>
+  <si>
+    <t>Hanoi star Secondary school</t>
+  </si>
+  <si>
+    <t>Nguyen Bao Son</t>
+  </si>
+  <si>
+    <t>Vu Minh Duc</t>
+  </si>
+  <si>
+    <t>Nguyen Duc Duy</t>
+  </si>
+  <si>
+    <t>Do Nga Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Tran Mai Chi</t>
+  </si>
+  <si>
+    <t>Ta Huy Hieu</t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков" - Отбор 4</t>
+  </si>
+  <si>
+    <t>Веселина Николаева Иванова</t>
+  </si>
+  <si>
+    <t>Георги Паскалев Апостолов</t>
+  </si>
+  <si>
+    <t>Йоана Красимирова Пеева</t>
+  </si>
+  <si>
+    <t>Бояна Боянова Христова</t>
+  </si>
+  <si>
+    <t>Виктория Владимирова Бояджиева</t>
+  </si>
+  <si>
+    <t>Марина Иванова Бояджиева</t>
+  </si>
+  <si>
+    <t>ППМГ "Акад. Н. Обрешков" - Отбор 5</t>
+  </si>
+  <si>
+    <t>Никола Константинов Коларов</t>
+  </si>
+  <si>
+    <t>Илия Димитров Томов</t>
+  </si>
+  <si>
+    <t>Дилян Павлов</t>
+  </si>
+  <si>
+    <t>Кристиана Кършелиева</t>
+  </si>
+  <si>
+    <t>Ралица Симова</t>
+  </si>
+  <si>
+    <t>Николай Руменов Димитров</t>
+  </si>
+  <si>
+    <t>МГ Варна</t>
+  </si>
+  <si>
+    <t>ППМГ Бургас</t>
+  </si>
+  <si>
+    <t>СМГ 7_1</t>
+  </si>
+  <si>
+    <t>Борис Житомиров Петруняшев</t>
+  </si>
+  <si>
+    <t>Георги Йонков Начев</t>
+  </si>
+  <si>
+    <t>Димитър Илиянов Сомлев</t>
+  </si>
+  <si>
+    <t>Илияс Башир Номан</t>
+  </si>
+  <si>
+    <t>Станислава Валентинова Минчева</t>
+  </si>
+  <si>
+    <t>Тереза Христова Ламбова</t>
+  </si>
+  <si>
+    <t>СМГ 7_2</t>
+  </si>
+  <si>
+    <t>Антония Николаева Илиева</t>
+  </si>
+  <si>
+    <t>Благо Ивов Гунев</t>
+  </si>
+  <si>
+    <t>Виктор Бориславов Михайлов</t>
+  </si>
+  <si>
+    <t>Даниел Хорхе Алберто Веласкес</t>
+  </si>
+  <si>
+    <t>Ива Ивайлова Радоева</t>
+  </si>
+  <si>
+    <t>Иван Тодоров Тагарев</t>
+  </si>
+  <si>
+    <t>Силистра</t>
+  </si>
+  <si>
+    <t>ПМГ " Св. Климент Охридски"</t>
+  </si>
+  <si>
+    <t>Божидар Данчев Димитров</t>
+  </si>
+  <si>
+    <t>Иван Ивелинов Богданов</t>
+  </si>
+  <si>
+    <t>Даниел Илиев Шиков</t>
+  </si>
+  <si>
+    <t>Михаил Михайлов Илиев</t>
+  </si>
+  <si>
+    <t>Николай Йорданов Георгиев</t>
+  </si>
+  <si>
+    <t>Крум Чавдаров Савов</t>
+  </si>
+  <si>
+    <t>Смелите</t>
+  </si>
+  <si>
+    <t>Мария Николаева Дренчева</t>
+  </si>
+  <si>
+    <t>Ванеса Петрова Мицева</t>
+  </si>
+  <si>
+    <t>Ясен Пламенов Пенчев</t>
+  </si>
+  <si>
+    <t>Деница Милетиева Василева</t>
+  </si>
+  <si>
+    <t>Демира Георгиева Недева</t>
+  </si>
+  <si>
+    <t>Деян Деянов Хаджи-Манич</t>
+  </si>
+  <si>
+    <t>ПЧМГ А7</t>
+  </si>
+  <si>
+    <t>Гео Геов Калфов</t>
+  </si>
+  <si>
+    <t>Димитър Димитров Христов</t>
+  </si>
+  <si>
+    <t>Явор Александров Дурев</t>
+  </si>
+  <si>
+    <t>Никола Александров Цачев</t>
+  </si>
+  <si>
+    <t>Росен Росен Стефанов</t>
+  </si>
+  <si>
+    <t>Петър Димитров Ивановски</t>
+  </si>
+  <si>
+    <t>ПЧМГ Б7</t>
+  </si>
+  <si>
+    <t>Рая Росенова Раденкова</t>
+  </si>
+  <si>
+    <t>Йоана Николаева Леви</t>
+  </si>
+  <si>
+    <t>Мира Ивайлова Ганчева</t>
+  </si>
+  <si>
+    <t>Божидар Кирилов Бонев</t>
+  </si>
+  <si>
+    <t>Петър Александров Генчев</t>
+  </si>
+  <si>
+    <t>Виктор Светославов Величков</t>
+  </si>
+  <si>
+    <t>ПЧМГ В7</t>
+  </si>
+  <si>
+    <t>Иван Петров Чолаков</t>
+  </si>
+  <si>
+    <t>Ралица Мартинова Белянова</t>
+  </si>
+  <si>
+    <t>Ралица Саниславова Йорданова</t>
+  </si>
+  <si>
+    <t>Николета Ценимирова Чапанова</t>
+  </si>
+  <si>
+    <t>Александър Димитров Драганов</t>
+  </si>
+  <si>
+    <t>Александър Лъчезаров Христов</t>
+  </si>
+  <si>
+    <t>Феникс (гр. София)</t>
+  </si>
+  <si>
+    <t>128 СУ</t>
+  </si>
+  <si>
+    <t>Виктория Християн Димитрова</t>
+  </si>
+  <si>
+    <t>Калина Христова Кирчева</t>
+  </si>
+  <si>
+    <t>Мария Маринова Тошева</t>
+  </si>
+  <si>
+    <t>Милица Мавродиева Кирякова</t>
+  </si>
+  <si>
+    <t>Николай Ричардс Николов</t>
+  </si>
+  <si>
+    <t>Пламен Емануилов Донев</t>
+  </si>
+  <si>
+    <t>Патриарх Евтимий</t>
+  </si>
+  <si>
+    <t>Даниел Димитров Лалов</t>
+  </si>
+  <si>
+    <t>Петър Антонов Стаменов</t>
+  </si>
+  <si>
+    <t>Радослав Димитров Димитров</t>
+  </si>
+  <si>
+    <t>Анди Ерол Кърмаджъ</t>
+  </si>
+  <si>
+    <t>Йоана Радославова Илчева</t>
+  </si>
+  <si>
+    <t>Любен Любенов Мишев</t>
+  </si>
+  <si>
+    <t>The Waves (ППМГ Бургас)</t>
+  </si>
+  <si>
+    <t>Петя Федева Чиликова</t>
+  </si>
+  <si>
+    <t>Цветелина Бистрева Илиева</t>
+  </si>
+  <si>
+    <t>Павел Руменов Братанов</t>
+  </si>
+  <si>
+    <t>Велина Йорданова Йорданова</t>
+  </si>
+  <si>
+    <t>Михаела Константинова Костадинова</t>
+  </si>
+  <si>
+    <t>Русана Георгиева Тончева</t>
+  </si>
+  <si>
+    <t>Албатроси (ППМГ Бургас)</t>
+  </si>
+  <si>
+    <t>Камелия Светославова Михайлова</t>
+  </si>
+  <si>
+    <t>Иванина Атанасова Кошничарова</t>
+  </si>
+  <si>
+    <t>Кристина Димитрова Димитрова</t>
+  </si>
+  <si>
+    <t>Дарина Радославова Търпова</t>
+  </si>
+  <si>
+    <t>Стефан Даниелов Стратев</t>
+  </si>
+  <si>
+    <t>Калоян Янчев Йорданов</t>
+  </si>
+  <si>
+    <t>Рапаните (ППМГ Бургас)</t>
+  </si>
+  <si>
+    <t>Владо Светославов Георгиев</t>
+  </si>
+  <si>
+    <t>Мирела Йорданова Бенова</t>
+  </si>
+  <si>
+    <t>Снежана Иванова Гаврилова</t>
+  </si>
+  <si>
+    <t>Калоян Бориславов Христов</t>
+  </si>
+  <si>
+    <t>Звездина Добринова Иванова</t>
+  </si>
+  <si>
+    <t>Боряна Станимирова Георгиева</t>
+  </si>
+  <si>
+    <t>Стара Загора</t>
+  </si>
+  <si>
+    <t>ППМГ “Гео Милев”</t>
+  </si>
+  <si>
+    <t>Мирослав Динков Минчев</t>
+  </si>
+  <si>
+    <t>Михаил Петков Михов</t>
+  </si>
+  <si>
+    <t>Атанас Пламенов Димитров</t>
+  </si>
+  <si>
+    <t>Георги Тонев</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Minh Anh</t>
+  </si>
+  <si>
+    <t>Phan Vu Nguyen Khai</t>
+  </si>
+  <si>
+    <t>Hoang Nhat Nam</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Son</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Dam Thuyen</t>
+  </si>
+  <si>
+    <t>Le Thanh Vinh</t>
+  </si>
+  <si>
+    <t>Отбор 1</t>
+  </si>
+  <si>
+    <t>Марина Апостолова</t>
+  </si>
+  <si>
+    <t>Мартин Тотев</t>
+  </si>
+  <si>
+    <t>Мартин Денев</t>
+  </si>
+  <si>
+    <t>Аляра Махмудова</t>
+  </si>
+  <si>
+    <t>Яна Чапкънова</t>
+  </si>
+  <si>
+    <t>Отбор 2</t>
+  </si>
+  <si>
+    <t>Борис Гергинов</t>
+  </si>
+  <si>
+    <t>Диян Бобев</t>
+  </si>
+  <si>
+    <t>Теодора Тодорова</t>
+  </si>
+  <si>
+    <t>Кристина Георгиева</t>
+  </si>
+  <si>
+    <t>Отбор 3</t>
+  </si>
+  <si>
+    <t>Александър Китенов</t>
+  </si>
+  <si>
+    <t>Мартин Собаджиев</t>
+  </si>
+  <si>
+    <t>Емилия Овчарова</t>
+  </si>
+  <si>
+    <t>Катерина Тодорова</t>
+  </si>
+  <si>
+    <t>СУ "Свети Патриарх Евтимий"</t>
+  </si>
+  <si>
+    <t>Фантом</t>
+  </si>
+  <si>
+    <t>Фантом 8-9 клас</t>
+  </si>
+  <si>
+    <t>Фантом 8.1</t>
+  </si>
+  <si>
+    <t>Фантом 8.2</t>
+  </si>
+  <si>
+    <t>Фантом 8.3</t>
+  </si>
+  <si>
+    <t>Фантом 8.4</t>
+  </si>
+  <si>
+    <t>Фантом 8.5</t>
+  </si>
+  <si>
+    <t>Фантом 8.6</t>
+  </si>
+  <si>
+    <t>Фантом 6-7 клас</t>
+  </si>
+  <si>
+    <t>Фантом 6.1</t>
+  </si>
+  <si>
+    <t>Фантом 6.2</t>
+  </si>
+  <si>
+    <t>Фантом 6.3</t>
+  </si>
+  <si>
+    <t>Фантом 6.4</t>
+  </si>
+  <si>
+    <t>Фантом 6.5</t>
+  </si>
+  <si>
+    <t>Фантом 6.6</t>
+  </si>
+  <si>
+    <t>Фантом 10-12 клас</t>
+  </si>
+  <si>
+    <t>Фантом 10.1</t>
+  </si>
+  <si>
+    <t>Фантом 10.2</t>
+  </si>
+  <si>
+    <t>Фантом 10.3</t>
+  </si>
+  <si>
+    <t>Фантом 10.4</t>
+  </si>
+  <si>
+    <t>Фантом 10.5</t>
+  </si>
+  <si>
+    <t>Фантом 10.6</t>
+  </si>
+  <si>
+    <t>Американски Колеж 8-9 клас</t>
+  </si>
+  <si>
+    <t>Американски колеж 10-12 клас</t>
   </si>
 </sst>
 </file>
@@ -587,160 +1382,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -750,122 +1907,585 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -875,44 +2495,305 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="361">
   <si>
     <t>СМГ 7_1</t>
   </si>
@@ -47,33 +47,12 @@
     <t>ПЧМГ Б7</t>
   </si>
   <si>
-    <t>ПЧМГ В7</t>
-  </si>
-  <si>
-    <t>Феникс (гр. София)</t>
-  </si>
-  <si>
     <t>"Патриарх Евтимий"</t>
   </si>
   <si>
-    <t>The Waves (ППМГ Бургас)</t>
-  </si>
-  <si>
-    <t>Албатроси (ППМГ Бургас)</t>
-  </si>
-  <si>
-    <t>Рапаните (ППМГ Бургас)</t>
-  </si>
-  <si>
     <t>Hanoi star Secondary school - Ha Noi, Việt Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">Отбор 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отбор 3 </t>
-  </si>
-  <si>
     <t>София 125 Ц</t>
   </si>
   <si>
@@ -428,9 +407,6 @@
     <t>Христо Венелинов Жеков</t>
   </si>
   <si>
-    <t xml:space="preserve">Отбор 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Марина Апостолова </t>
   </si>
   <si>
@@ -476,21 +452,12 @@
     <t>СМГ 8_2</t>
   </si>
   <si>
-    <t>СМГ Мотикарите</t>
-  </si>
-  <si>
     <t>СМГ 8_4</t>
   </si>
   <si>
     <t>СМГ 8_5</t>
   </si>
   <si>
-    <t>СМГ 9_1</t>
-  </si>
-  <si>
-    <t>СМГ 9_2</t>
-  </si>
-  <si>
     <t>СМГ 9_3 - Дионис</t>
   </si>
   <si>
@@ -512,33 +479,6 @@
     <t>АК</t>
   </si>
   <si>
-    <t>ППМГ 8_1</t>
-  </si>
-  <si>
-    <t>ППМГ 8_2</t>
-  </si>
-  <si>
-    <t>ППМГ 8_3</t>
-  </si>
-  <si>
-    <t>Hanoi star Secondary school - Ha Noi, Việt Nam 6 - 7 class</t>
-  </si>
-  <si>
-    <t>Hanoi star Secondary school - Ha Noi, Việt Nam - 8 class</t>
-  </si>
-  <si>
-    <t>ППМГ 9_2</t>
-  </si>
-  <si>
-    <t>ППМГ 9_1</t>
-  </si>
-  <si>
-    <t>Добрич - Хасково - Пловдив</t>
-  </si>
-  <si>
-    <t>Стара Загора - Бургас - Варна</t>
-  </si>
-  <si>
     <t>Вероника Ивайлова Ченчева</t>
   </si>
   <si>
@@ -569,9 +509,6 @@
     <t>Атанас Стоянов Хрисулев</t>
   </si>
   <si>
-    <t>Венислав</t>
-  </si>
-  <si>
     <t>Радостин Бисеров Хаджимарков</t>
   </si>
   <si>
@@ -680,9 +617,6 @@
     <t>Христо Бориславов Борисов</t>
   </si>
   <si>
-    <t>Елена Димитрова</t>
-  </si>
-  <si>
     <t>Ta Huy Hieu</t>
   </si>
   <si>
@@ -890,42 +824,12 @@
     <t>Фантом</t>
   </si>
   <si>
-    <t>Фантом 6.1</t>
-  </si>
-  <si>
-    <t>Фантом 6.2</t>
-  </si>
-  <si>
-    <t>Фантом 6.3</t>
-  </si>
-  <si>
-    <t>Фантом 6.4</t>
-  </si>
-  <si>
-    <t>Фантом 6.5</t>
-  </si>
-  <si>
-    <t>Фантом 6.6</t>
-  </si>
-  <si>
-    <t>СМГ 10_1</t>
-  </si>
-  <si>
-    <t>СМГ 10_2</t>
-  </si>
-  <si>
     <t>СМГ 10_3</t>
   </si>
   <si>
-    <t>СМГ 10_4</t>
-  </si>
-  <si>
     <t>СМГ 11_1</t>
   </si>
   <si>
-    <t>СМГ 11_2</t>
-  </si>
-  <si>
     <t>МГ Варна и приятели</t>
   </si>
   <si>
@@ -1085,18 +989,9 @@
     <t>МГ Варна</t>
   </si>
   <si>
-    <t>Американски колеж 10-12 клас</t>
-  </si>
-  <si>
-    <t>ППМГ Бургас 10-12 клас</t>
-  </si>
-  <si>
     <t>Фантом 10-12 клас</t>
   </si>
   <si>
-    <t>Фантом 6-7 клас</t>
-  </si>
-  <si>
     <t>Фантом 10.1</t>
   </si>
   <si>
@@ -1113,6 +1008,108 @@
   </si>
   <si>
     <t>Фантом 10.6</t>
+  </si>
+  <si>
+    <t>ПЧМГ В7 - Бухтичка</t>
+  </si>
+  <si>
+    <t>128 СУ - Феникс</t>
+  </si>
+  <si>
+    <t>ППМГ-1</t>
+  </si>
+  <si>
+    <t>ППМГ-2</t>
+  </si>
+  <si>
+    <t>ППМГ-3</t>
+  </si>
+  <si>
+    <t>2к17</t>
+  </si>
+  <si>
+    <t>Виетнам 1</t>
+  </si>
+  <si>
+    <t>Виетнам 2</t>
+  </si>
+  <si>
+    <t>Бургас 7-1 - The Waves</t>
+  </si>
+  <si>
+    <t>Бургас 7-2 - Албатроси</t>
+  </si>
+  <si>
+    <t>Бургас 7-3 - Рапаните</t>
+  </si>
+  <si>
+    <t>СМГ 8_3 - Мотикарите</t>
+  </si>
+  <si>
+    <t>СМГ 9_1 - Шкембето</t>
+  </si>
+  <si>
+    <t>СМГ 9_2 - Трите грации и трите ретардации</t>
+  </si>
+  <si>
+    <t>Бургас 8-3</t>
+  </si>
+  <si>
+    <t>Бургас 8-2</t>
+  </si>
+  <si>
+    <t>Венислав Еманоелов Иванов</t>
+  </si>
+  <si>
+    <t>Бургас 8-1 - Безимен</t>
+  </si>
+  <si>
+    <t>Добрич-Пловдив-Хасково</t>
+  </si>
+  <si>
+    <t>Бургас 9-2</t>
+  </si>
+  <si>
+    <t>Бургас 9-1</t>
+  </si>
+  <si>
+    <t>СМГ 10_1 - Пупишите</t>
+  </si>
+  <si>
+    <t>СМГ 10_2 - Домат Зелен Чук</t>
+  </si>
+  <si>
+    <t>СМГ 10_4 - Лютеница 420</t>
+  </si>
+  <si>
+    <t>СМГ 11_2 - Алкохол и проценти</t>
+  </si>
+  <si>
+    <t>Бургас + Хасково</t>
+  </si>
+  <si>
+    <t>Американски Колеж 10-12 клас</t>
+  </si>
+  <si>
+    <t>Фантом 8-9 клас</t>
+  </si>
+  <si>
+    <t>Фантом 8.1</t>
+  </si>
+  <si>
+    <t>Фантом 8.2</t>
+  </si>
+  <si>
+    <t>Фантом 8.3</t>
+  </si>
+  <si>
+    <t>Фантом 8.4</t>
+  </si>
+  <si>
+    <t>Фантом 8.5</t>
+  </si>
+  <si>
+    <t>Фантом 8.6</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,28 +1629,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1665,28 +1662,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1698,28 +1695,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1731,28 +1728,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1764,28 +1761,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1797,28 +1794,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1827,31 +1824,31 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1860,31 +1857,31 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1893,31 +1890,31 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1926,31 +1923,31 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1959,31 +1956,31 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1992,31 +1989,31 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2025,28 +2022,28 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4"/>
@@ -2056,29 +2053,27 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2087,28 +2082,28 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="4"/>
@@ -2118,27 +2113,29 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2147,25 +2144,25 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2176,32 +2173,28 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="3"/>
@@ -2209,31 +2202,31 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2242,31 +2235,31 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2275,31 +2268,31 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2308,77 +2301,76 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>288</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>290</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
@@ -2426,8 +2418,8 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2436,6 +2428,17 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,7 +2451,7 @@
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,31 +2471,31 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="22"/>
@@ -2503,31 +2506,31 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="22"/>
@@ -2538,31 +2541,31 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="22"/>
@@ -2573,31 +2576,31 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="22"/>
@@ -2608,31 +2611,31 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="22"/>
@@ -2643,31 +2646,31 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="22"/>
@@ -2678,31 +2681,31 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="22"/>
@@ -2713,31 +2716,31 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="22"/>
@@ -2748,31 +2751,31 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="22"/>
@@ -2781,28 +2784,28 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2812,31 +2815,31 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="22"/>
@@ -2845,31 +2848,31 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>180</v>
+        <v>343</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="22"/>
@@ -2878,31 +2881,31 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="22"/>
@@ -2911,31 +2914,31 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="22"/>
@@ -2944,31 +2947,31 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="22"/>
@@ -2977,26 +2980,24 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3005,29 +3006,33 @@
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
+      <c r="A17" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>256</v>
+      <c r="D17" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -3035,31 +3040,31 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>257</v>
+      <c r="D18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="22"/>
@@ -3067,68 +3072,67 @@
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>159</v>
+      <c r="A19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -3417,12 +3421,12 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
@@ -3435,31 +3439,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2">
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>340</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -3467,28 +3471,28 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="25"/>
@@ -3497,28 +3501,28 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>302</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>334</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="25"/>
@@ -3527,31 +3531,31 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -3559,31 +3563,31 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>336</v>
-      </c>
       <c r="I5" s="27" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -3591,31 +3595,31 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>337</v>
-      </c>
       <c r="I6" s="26" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -3623,31 +3627,31 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -3655,31 +3659,31 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -3687,28 +3691,28 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="25"/>
@@ -3717,31 +3721,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
